--- a/data_voor_swing/aggregatietabellen/deelgemeente_gemeente2018.xlsx
+++ b/data_voor_swing/aggregatietabellen/deelgemeente_gemeente2018.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1375"/>
+  <dimension ref="A1:B1376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14133,10 +14133,20 @@
     <row r="1375" spans="1:2" s="0" outlineLevel="0">
       <c r="A1375" t="inlineStr">
         <is>
+          <t>99993ONBE</t>
+        </is>
+      </c>
+      <c r="B1375" s="23">
+        <v>99993</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" s="0" outlineLevel="0">
+      <c r="A1376" t="inlineStr">
+        <is>
           <t>99999ONBE</t>
         </is>
       </c>
-      <c r="B1375" s="23">
+      <c r="B1376" s="23">
         <v>99999</v>
       </c>
     </row>
